--- a/Graficos/graficos.xlsx
+++ b/Graficos/graficos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avell\Documents\2019 - 02\TPIA\EP\Graficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16024A94-FB90-4DE0-B638-9229801A235F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E0D963-CFE8-4D55-AEC6-2352A714E7B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="2" activeTab="9" xr2:uid="{BD70179F-E857-4643-A131-1A25A4B6FC6E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="3" activeTab="10" xr2:uid="{BD70179F-E857-4643-A131-1A25A4B6FC6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Problema(1)" sheetId="1" r:id="rId1"/>
@@ -18445,13 +18445,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>248382</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>63376</xdr:rowOff>
+      <xdr:rowOff>85357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>238858</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>106240</xdr:rowOff>
+      <xdr:rowOff>128221</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18883,7 +18883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785191B7-9FB1-4C48-AA26-62B71114257D}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -18986,8 +18986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF91903-C13F-4EC4-9675-BF42D680FF0E}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Graficos/graficos.xlsx
+++ b/Graficos/graficos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avell\Documents\2019 - 02\TPIA\EP\Graficos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avell\eclipse-workspace\TPIA\Graficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E0D963-CFE8-4D55-AEC6-2352A714E7B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50864431-F134-4993-B347-FA304B1C506F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="3" activeTab="10" xr2:uid="{BD70179F-E857-4643-A131-1A25A4B6FC6E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BD70179F-E857-4643-A131-1A25A4B6FC6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Problema(1)" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="21">
   <si>
     <t>Tempo de busca</t>
   </si>
@@ -103,10 +103,7 @@
     <t>Custo do plano</t>
   </si>
   <si>
-    <t>Operadores</t>
-  </si>
-  <si>
-    <t>Fatos</t>
+    <t>Número de caixas</t>
   </si>
 </sst>
 </file>
@@ -18780,8 +18777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FCC19D8-F097-47E4-B72E-348097B8CAC3}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18883,7 +18880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785191B7-9FB1-4C48-AA26-62B71114257D}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -18986,7 +18983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF91903-C13F-4EC4-9675-BF42D680FF0E}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -19087,21 +19084,20 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E93F2A-4660-4E12-85EB-626274472DF2}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -19111,11 +19107,8 @@
       <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -19123,82 +19116,106 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>34</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4">
         <v>9</v>
       </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5">
         <v>11</v>
       </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6">
         <v>15</v>
       </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7">
         <v>17</v>
       </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8">
         <v>21</v>
       </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9">
         <v>23</v>
       </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10">
         <v>27</v>
       </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11">
         <v>29</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -19211,7 +19228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAFF25E-B61C-43E0-AE3B-E85939579F42}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -19314,7 +19331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB3BC19-1D45-4EEF-8944-5EAB2792C7B4}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -19417,7 +19434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CC6803-0AF0-4655-8ECA-7B90ECE7EB53}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E5"/>
     </sheetView>
   </sheetViews>
@@ -19520,7 +19537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446BA62C-10D0-445C-987B-B592A9F2C806}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -19829,7 +19846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FF85C2-F581-4526-9ED8-55EAB8A22E8E}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E5"/>
     </sheetView>
   </sheetViews>
